--- a/python/excel/example.xlsx
+++ b/python/excel/example.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\til\python\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="288" yWindow="96" windowWidth="9540" windowHeight="4512"/>
+    <workbookView xWindow="1215" yWindow="90" windowWidth="9540" windowHeight="4515"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Apples</t>
   </si>
@@ -34,17 +39,29 @@
   </si>
   <si>
     <t>Strawberries</t>
+  </si>
+  <si>
+    <t>date</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>item</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>number</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -53,6 +70,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -88,7 +112,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -96,12 +120,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -143,7 +170,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -178,7 +205,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -387,95 +414,107 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A2" s="1">
         <v>42099.565300925926</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3">
+      <c r="C2" s="3">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A3" s="1">
         <v>42099.153738425928</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C3" s="3">
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A4" s="1">
         <v>42100.532534722224</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C4" s="3">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A5" s="1">
         <v>42102.374803240738</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C5" s="3">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="6" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A6" s="1">
         <v>42104.088194444441</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C6" s="3">
         <v>152</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A7" s="1">
         <v>42104.757372685184</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C7" s="3">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.15">
+      <c r="A8" s="1">
         <v>42104.111643518518</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C8" s="3">
         <v>98</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -487,8 +526,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -499,8 +539,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>